--- a/empirics/modeldata/CETC_bycapitaltype.xlsx
+++ b/empirics/modeldata/CETC_bycapitaltype.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>nipa_code</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>usercost</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
   <si>
     <t>pcepi</t>
@@ -14599,10 +14602,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
